--- a/profileList.xlsx
+++ b/profileList.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\automateWhatsapp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{329FEDB2-0109-45E8-A139-16455CBA7D71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{479021D9-A2D4-444F-B348-8BBEFC94E9A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4764" yWindow="3276" windowWidth="17280" windowHeight="8964" xr2:uid="{9D418BA8-D663-4FFA-A058-F30954D6EA06}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Name</t>
   </si>
@@ -42,52 +42,7 @@
     <t>Utsav</t>
   </si>
   <si>
-    <t xml:space="preserve">Sweta </t>
-  </si>
-  <si>
-    <t>Ma'am</t>
-  </si>
-  <si>
-    <t>Ganesh</t>
-  </si>
-  <si>
-    <t>Vijaya Lakshmi</t>
-  </si>
-  <si>
-    <t>Ma.am</t>
-  </si>
-  <si>
-    <t>EPSILON CARBON Pvt. Ltd.</t>
-  </si>
-  <si>
-    <t>Male</t>
-  </si>
-  <si>
-    <t>GET</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>Core</t>
-  </si>
-  <si>
-    <t>Female</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Manish </t>
-  </si>
-  <si>
-    <t>Gope Shiva Praasad</t>
-  </si>
-  <si>
-    <t>Jindal Power Limited</t>
-  </si>
-  <si>
-    <t>Kishor Chintapalli</t>
-  </si>
-  <si>
-    <t>Aadarsh Singh</t>
+    <t>XXXXXXXXX</t>
   </si>
 </sst>
 </file>
@@ -439,10 +394,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35C7E82F-72CD-45F1-B0C5-3699265F0760}">
-  <dimension ref="A1:I9"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -453,7 +408,7 @@
     <col min="4" max="4" width="23" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -464,182 +419,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>4</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
       </c>
-      <c r="C2">
-        <v>7250241229</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="C2" t="s">
         <v>5</v>
-      </c>
-      <c r="B3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3">
-        <v>8092237375</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4">
-        <v>9392510514</v>
-      </c>
-      <c r="D4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4">
-        <v>7</v>
-      </c>
-      <c r="F4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" t="s">
-        <v>12</v>
-      </c>
-      <c r="H4" t="s">
-        <v>13</v>
-      </c>
-      <c r="I4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5">
-        <v>9392394338</v>
-      </c>
-      <c r="D5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5">
-        <v>7</v>
-      </c>
-      <c r="F5" t="s">
-        <v>15</v>
-      </c>
-      <c r="G5" t="s">
-        <v>12</v>
-      </c>
-      <c r="H5" t="s">
-        <v>13</v>
-      </c>
-      <c r="I5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>16</v>
-      </c>
-      <c r="B6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6">
-        <v>7606904185</v>
-      </c>
-      <c r="D6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E6">
-        <v>7</v>
-      </c>
-      <c r="F6" t="s">
-        <v>11</v>
-      </c>
-      <c r="G6" t="s">
-        <v>12</v>
-      </c>
-      <c r="H6" t="s">
-        <v>13</v>
-      </c>
-      <c r="I6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>17</v>
-      </c>
-      <c r="B7" t="s">
-        <v>3</v>
-      </c>
-      <c r="C7">
-        <v>8919066145</v>
-      </c>
-      <c r="D7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E7">
-        <v>8</v>
-      </c>
-      <c r="F7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G7" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>19</v>
-      </c>
-      <c r="B8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C8">
-        <v>6305455026</v>
-      </c>
-      <c r="D8" t="s">
-        <v>18</v>
-      </c>
-      <c r="E8">
-        <v>8</v>
-      </c>
-      <c r="F8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G8" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>20</v>
-      </c>
-      <c r="B9" t="s">
-        <v>3</v>
-      </c>
-      <c r="C9">
-        <v>9044959004</v>
-      </c>
-      <c r="D9" t="s">
-        <v>18</v>
-      </c>
-      <c r="E9">
-        <v>8</v>
-      </c>
-      <c r="F9" t="s">
-        <v>11</v>
-      </c>
-      <c r="G9" t="s">
-        <v>12</v>
       </c>
     </row>
   </sheetData>
